--- a/biology/Médecine/Astrocytome/Astrocytome.xlsx
+++ b/biology/Médecine/Astrocytome/Astrocytome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'astrocytome est une tumeur infiltrante et lentement évolutive, développée à partir des cellules astrocytaires. L'astrocytome fait partie des gliomes, tumeurs développées à partir des cellules gliales, qui constituent le tissu de soutien des neurones, et dont font partie les cellules astrocytaires. C'est une tumeur infiltrante des hémisphères cérébraux de l'adulte, mais aussi du cervelet chez l'enfant[1]. L'astrocytome peut correspondre à des grades histologiques différents en fonction de la différenciation cellulaire. Il peut être bénin, mais il peut se transformer en astrocytome anaplasique, ou, à un degré de plus de malignité, en glioblastome multiforme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'astrocytome est une tumeur infiltrante et lentement évolutive, développée à partir des cellules astrocytaires. L'astrocytome fait partie des gliomes, tumeurs développées à partir des cellules gliales, qui constituent le tissu de soutien des neurones, et dont font partie les cellules astrocytaires. C'est une tumeur infiltrante des hémisphères cérébraux de l'adulte, mais aussi du cervelet chez l'enfant. L'astrocytome peut correspondre à des grades histologiques différents en fonction de la différenciation cellulaire. Il peut être bénin, mais il peut se transformer en astrocytome anaplasique, ou, à un degré de plus de malignité, en glioblastome multiforme.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éléments cliniques chez l'adulte sont marqués par la comitialité tardive et isolée (épilepsie grand mal ou épilepsie focalisée), mais aussi par des céphalées, une hypertension intra-crânienne ou un déficit moteur progressif.
 Chez l'enfant, on peut aussi retrouver des troubles de l'acquisition (marche, position debout), un syndrome cérébelleux cinétique puisque l'astrocytome touche préférentiellement les hémisphères du cervelet.
@@ -544,7 +558,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En début d'évolution, l'imagerie montre une tumeur isodense au scanner, d'où l'intérêt de l'IRM, plus sensible au dépistage de cette tumeur peu vascularisée. Lors de l'évolution, le scanner montre une tumeur hypodense, ne prenant généralement pas le produit de contraste. Il n'est pas retrouvé d'effet de masse puisque la tumeur est infiltrante.
 Une biopsie peut être envisagée pour confirmer le diagnostic d'astrocytome, préciser le grade histologique.
@@ -578,7 +594,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En cas d'astrocytome bénin, l'attitude thérapeutique peut consister en :
 une exérèse chirurgicale si la lésion est accessible au geste, ou
@@ -613,7 +631,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En 2003, dans le film Comme si de rien n'était, le personnage principal (incarné par Alice Carel), est atteint d'un astrocytome.</t>
         </is>
